--- a/Index of physical volume of industrial production(stat kg).xlsx
+++ b/Index of physical volume of industrial production(stat kg).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Көрсөткүчтөрдүн аталыштары</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Batken oblast</t>
-  </si>
-  <si>
-    <t>в 2,0 р</t>
   </si>
   <si>
     <t>Жалал-Абад облусу</t>
@@ -606,7 +603,7 @@
   <dimension ref="A1:Q641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -783,8 +780,8 @@
       <c r="M4" s="22">
         <v>125.3</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>10</v>
+      <c r="N4" s="22">
+        <v>103.2</v>
       </c>
       <c r="O4" s="28">
         <v>110.3</v>
@@ -798,13 +795,13 @@
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="19">
         <v>122.1</v>
@@ -851,13 +848,13 @@
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="19">
         <v>103.3</v>
@@ -904,13 +901,13 @@
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="19">
         <v>114.2</v>
@@ -957,13 +954,13 @@
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="19">
         <v>116.7</v>
@@ -1010,13 +1007,13 @@
     </row>
     <row r="9" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="19">
         <v>124.4</v>
@@ -1063,13 +1060,13 @@
     </row>
     <row r="10" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="19">
         <v>104.6</v>
@@ -1116,13 +1113,13 @@
     </row>
     <row r="11" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="19">
         <v>117.9</v>
@@ -1169,13 +1166,13 @@
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="23">
         <v>120.2</v>
@@ -1228,11 +1225,11 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
@@ -1244,11 +1241,11 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
